--- a/Document/03_ディレクトリ構成表.xlsx
+++ b/Document/03_ディレクトリ構成表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -64,6 +64,77 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更履歴</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更箇所</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>齋藤恭平</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更内容</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリ更生表  OrderSystem/Util</t>
+    <rPh sb="6" eb="8">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Message.phpをModelExcpetion.phpに変更</t>
+    <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -160,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -176,6 +247,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -201,13 +280,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -256,13 +335,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -311,13 +390,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -366,13 +445,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -414,13 +493,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -462,13 +541,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -510,13 +589,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -565,13 +644,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -620,13 +699,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -675,13 +754,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -730,13 +809,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -785,13 +864,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -840,13 +919,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -895,13 +974,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -950,13 +1029,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1005,13 +1084,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1060,13 +1139,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1115,13 +1194,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1170,13 +1249,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1218,13 +1297,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1266,13 +1345,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1314,13 +1393,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1362,13 +1441,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1410,13 +1489,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1458,13 +1537,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1506,13 +1585,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1554,13 +1633,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1602,13 +1681,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1650,13 +1729,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1698,13 +1777,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1753,13 +1832,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>99734</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1801,13 +1880,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>15690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>15690</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1856,13 +1935,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>84044</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1904,13 +1983,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>99735</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1952,13 +2031,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>15690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>15691</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1996,7 +2075,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Message.php</a:t>
+            <a:t>ModelException.php</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2293,13 +2372,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H6" sqref="H6:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
@@ -2341,7 +2423,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="6">
-        <v>42442</v>
+        <v>42456</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="1" t="s">
@@ -2353,8 +2435,99 @@
       <c r="M2" s="2"/>
       <c r="N2" s="1"/>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>42456</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:N6"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="A2:G2"/>
